--- a/data/TC001.xlsx
+++ b/data/TC001.xlsx
@@ -39,7 +39,7 @@
     <t>Demo B2B CSR</t>
   </si>
   <si>
-    <t>DemoGlobalMansion Sales Manager</t>
+    <t>Demo Sales Manager</t>
   </si>
 </sst>
 </file>
